--- a/biology/Médecine/Didier_Sicard/Didier_Sicard.xlsx
+++ b/biology/Médecine/Didier_Sicard/Didier_Sicard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didier Sicard, né le 28 janvier 1938 à Boulogne-Billancourt, est un médecin et professeur de médecine français. Il a été le président du Comité consultatif national d'éthique de 1999 à 2008. 
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de deux médecins, avec un père catholique et une mère protestante, il exerce une partie de sa carrière à l'étranger[1]. Il est ensuite professeur de médecine à l'université Paris-Descartes et chef de service de médecine interne à l'hôpital Cochin, à Paris[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de deux médecins, avec un père catholique et une mère protestante, il exerce une partie de sa carrière à l'étranger. Il est ensuite professeur de médecine à l'université Paris-Descartes et chef de service de médecine interne à l'hôpital Cochin, à Paris. 
 En mars 1999, il devient président du Comité consultatif national d'éthique (CCNE) pour les sciences de la vie et de la santé, succédant à Jean-Pierre Changeux. Durant son mandat, il aborde les nouveaux champs de réflexions en termes d'éthique médicale, notamment sur les technologies de la procréation, qui voient leur complexité s'accroître à mesure des avancées dans ce domaine. Il souligne en outre le manque de formation des médecins pour répondre à des questions éthiques de plus en plus nombreuses, et dénonce l'écart qui existe en France entre l'éthique et la pratique. Le 19 février 2008, Alain Grimfeld lui succède à la présidence du CCNE, et Didier Sicard en devient le président d'honneur.[réf. nécessaire]
-En juillet 2012, il est désigné par François Hollande en tant que coordinateur d'une Commission chargée de réfléchir sur les modalités d'assistance au décès pour les personnes en fin de vie[3] ; la commission a rendu le 18 décembre 2012 un rapport intitulé par les médias « rapport Sicard[4],[5] ».
-Au sein des différents courants de pensée autour de la bioéthique, Pierre-André Taguieff estime qu'il se situe dans le courant chrétien, pour qui la vie humaine est sacrée et qu'il y a interdiction pour l'homme d'agir aux confins de l'existence humaine[6].
+En juillet 2012, il est désigné par François Hollande en tant que coordinateur d'une Commission chargée de réfléchir sur les modalités d'assistance au décès pour les personnes en fin de vie ; la commission a rendu le 18 décembre 2012 un rapport intitulé par les médias « rapport Sicard, ».
+Au sein des différents courants de pensée autour de la bioéthique, Pierre-André Taguieff estime qu'il se situe dans le courant chrétien, pour qui la vie humaine est sacrée et qu'il y a interdiction pour l'homme d'agir aux confins de l'existence humaine.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Commandeur de la Légion d'honneur (2014)[7]
-Grande Médaille de l’Académie nationale de médecine (2020)[8]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Commandeur de la Légion d'honneur (2014)
+Grande Médaille de l’Académie nationale de médecine (2020)</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Au nom de Marx et de Bouddha, avec Marie-Noële Sicard, Paris, Inter Éditions, 1981  (ISBN 2-7296-0097-3).
 L'approche clinique, avec Philippe Bernard, Paris, Librairie Maloine, 1987  (ISBN 978-2891301046).
